--- a/logs/test1_result3.xlsx
+++ b/logs/test1_result3.xlsx
@@ -1291,11 +1291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1771380528"/>
-        <c:axId val="1771367472"/>
+        <c:axId val="-275739936"/>
+        <c:axId val="-275736672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1771380528"/>
+        <c:axId val="-275739936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771367472"/>
+        <c:crossAx val="-275736672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1771367472"/>
+        <c:axId val="-275736672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1515,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771380528"/>
+        <c:crossAx val="-275739936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
